--- a/Manifest_External_Documentation.xlsx
+++ b/Manifest_External_Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\World_Poll\People\Jonathan_Rothwell\Personal_Data\BROOKINGS METRO\Book\Draft\Appendix\Publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED7186-955C-4483-AEE9-68A6E944BB28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868BC84-F490-4241-8BB2-192F38FC4A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Appendix_PreK_Classroom_Quality_&amp;_IQ.do</t>
   </si>
@@ -131,9 +131,6 @@
     <t>This shows how to replicate my anlaysis of top1% earners by detailed industry or occupation of work</t>
   </si>
   <si>
-    <t>Shows where I got the data from and other details</t>
-  </si>
-  <si>
     <t>Political satisfaction analysis</t>
   </si>
   <si>
@@ -281,8 +278,59 @@
     <t>raw international data needed to replicate my analysis, particularly in chapter1 and the appendix showing what predicts inequality</t>
   </si>
   <si>
+    <t>Appendix_Methods_for_Identifying_Top1Pct_with_ACS2012_2016</t>
+  </si>
+  <si>
+    <t>This file performs analysis described in the Appendix chapter to identify the one percent and determine the robustness of that identificaiton across various income definitions.</t>
+  </si>
+  <si>
+    <t>Appendix_Methods_IRS_Income_Correlation_with_Census_Income</t>
+  </si>
+  <si>
+    <t>This processes IRS data at the zip code level and shows the relationship between total income and capital income.</t>
+  </si>
+  <si>
+    <t>SOURCES: Shows where I got the data from and other details</t>
+  </si>
+  <si>
+    <t>Appendix_PIACC_Figure_3_2</t>
+  </si>
+  <si>
+    <t>Analysis of inequality in health and income in PIACC countries; also shows simulation of alternative inequality measures if observable characteristics determined income and health; also calcualtes professional earnings advantage (premium) shown in Figure 3.2</t>
+  </si>
+  <si>
+    <t>Appendix_PIACC_USA_IQ_by_RACE</t>
+  </si>
+  <si>
+    <t>Shows racial and ethnic differneces in cognitive performance on the PIACC by race for U.S. test takers</t>
+  </si>
+  <si>
+    <t>PIACC_country_code</t>
+  </si>
+  <si>
+    <t>This provides country labels to PIACC codes (STATA version)</t>
+  </si>
+  <si>
+    <t>PIACC_MetaData_OECD_CountryLabels</t>
+  </si>
+  <si>
+    <t>This provides country labels to PIACC codes (csv version)</t>
+  </si>
+  <si>
+    <t>PIACC_MetaData_OECD_Occupation_Categories.csv</t>
+  </si>
+  <si>
+    <t>This identifies occupations in PIACC as professional, managerial, associate professional/technical or non-professional (csv version)</t>
+  </si>
+  <si>
+    <t>PIACC_MetaData_OECD_Occupation_Categories.dta</t>
+  </si>
+  <si>
+    <t>This identifies occupations in PIACC as professional, managerial, associate professional/technical or non-professional (STATA version)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Manifest for external documents to </t>
+      <t xml:space="preserve">Manifest for supplemental materials to </t>
     </r>
     <r>
       <rPr>
@@ -305,20 +353,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>by Jonathan Rothwell (Princeton University Press)</t>
+      <t>by Jonathan Rothwell (Princeton University Press, 2019)</t>
     </r>
-  </si>
-  <si>
-    <t>Appendix_Methods_for_Identifying_Top1Pct_with_ACS2012_2016</t>
-  </si>
-  <si>
-    <t>This file performs analysis described in the Appendix chapter to identify the one percent and determine the robustness of that identificaiton across various income definitions.</t>
-  </si>
-  <si>
-    <t>Appendix_Methods_IRS_Income_Correlation_with_Census_Income</t>
-  </si>
-  <si>
-    <t>This processes IRS data at the zip code level and shows the relationship between total income and capital income.</t>
   </si>
 </sst>
 </file>
@@ -371,13 +407,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,83 +693,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="226.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -743,105 +779,105 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -849,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -863,116 +899,116 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -981,26 +1017,26 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1009,12 +1045,12 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1023,12 +1059,12 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1037,12 +1073,12 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1051,54 +1087,54 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -1107,12 +1143,12 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -1121,103 +1157,187 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A41">
-    <sortCondition ref="A1:A41"/>
+  <sortState ref="A1:A40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
